--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:35:34+00:00</t>
+    <t>2023-02-18T09:40:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:40:56+00:00</t>
+    <t>2023-02-18T09:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:58:57+00:00</t>
+    <t>2023-02-18T10:08:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:08:04+00:00</t>
+    <t>2023-02-18T10:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:08:52+00:00</t>
+    <t>2023-02-18T10:54:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:54:22+00:00</t>
+    <t>2023-02-18T10:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:54:26+00:00</t>
+    <t>2023-02-18T11:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:03:25+00:00</t>
+    <t>2023-02-18T11:04:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:04:01+00:00</t>
+    <t>2023-02-18T11:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:59+00:00</t>
+    <t>2023-02-18T11:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:31+00:00</t>
+    <t>2023-02-18T14:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:18:06+00:00</t>
+    <t>2023-02-18T14:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:18:46+00:00</t>
+    <t>2023-02-18T14:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:33:26+00:00</t>
+    <t>2023-02-20T05:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T05:36:23+00:00</t>
+    <t>2023-02-20T05:45:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T05:45:30+00:00</t>
+    <t>2023-02-20T07:16:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:16:18+00:00</t>
+    <t>2023-02-20T07:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:16:27+00:00</t>
+    <t>2023-02-20T07:47:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:53+00:00</t>
+    <t>2023-02-20T07:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:54:18+00:00</t>
+    <t>2023-02-21T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:53:49+00:00</t>
+    <t>2023-02-21T14:02:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -885,7 +885,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-hiv-diagnosis</t>
+    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-condition</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1640,7 +1640,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.71484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.7109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:02:05+00:00</t>
+    <t>2023-02-21T14:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:02:34+00:00</t>
+    <t>2023-02-21T14:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:39:39+00:00</t>
+    <t>2023-02-22T12:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:13:37+00:00</t>
+    <t>2023-02-22T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:14:29+00:00</t>
+    <t>2023-02-22T12:55:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:55:56+00:00</t>
+    <t>2023-02-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:56:47+00:00</t>
+    <t>2023-02-22T14:46:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T14:46:19+00:00</t>
+    <t>2023-02-22T14:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T14:47:44+00:00</t>
+    <t>2023-02-22T15:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:00:42+00:00</t>
+    <t>2023-02-22T15:01:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:01:39+00:00</t>
+    <t>2023-02-22T15:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:05:09+00:00</t>
+    <t>2023-02-22T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:06:05+00:00</t>
+    <t>2023-02-22T15:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:17:45+00:00</t>
+    <t>2023-02-22T15:19:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:19:59+00:00</t>
+    <t>2023-02-22T15:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:29:38+00:00</t>
+    <t>2023-02-22T15:31:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:31:03+00:00</t>
+    <t>2023-02-23T08:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:16:34+00:00</t>
+    <t>2023-02-23T08:20:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:20:52+00:00</t>
+    <t>2023-02-23T08:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:46:38+00:00</t>
+    <t>2023-02-24T12:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T12:58:33+00:00</t>
+    <t>2023-02-24T14:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:12:54+00:00</t>
+    <t>2023-02-24T14:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:24:20+00:00</t>
+    <t>2023-02-25T14:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T14:44:55+00:00</t>
+    <t>2023-02-27T07:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Confirmation of the diagnosis</t>
+    <t>This profile represents the confirmation of HIV diagnosis.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:20:27+00:00</t>
+    <t>2023-02-27T07:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:24:09+00:00</t>
+    <t>2023-02-27T07:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:38:12+00:00</t>
+    <t>2023-02-27T08:29:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:29:07+00:00</t>
+    <t>2023-02-28T11:17:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:17:07+00:00</t>
+    <t>2023-02-28T11:22:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:22:14+00:00</t>
+    <t>2023-03-01T08:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:28:52+00:00</t>
+    <t>2023-03-01T12:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:48:35+00:00</t>
+    <t>2023-03-01T12:49:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:49:43+00:00</t>
+    <t>2023-03-01T13:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:24:40+00:00</t>
+    <t>2023-03-02T06:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:23+00:00</t>
+    <t>2023-03-02T06:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:46:56+00:00</t>
+    <t>2023-03-02T06:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
